--- a/WebRoot/docs/inspection.xlsx
+++ b/WebRoot/docs/inspection.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tj2539977\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7695"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12780" windowHeight="3045"/>
   </bookViews>
   <sheets>
     <sheet name="inspection" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -25,19 +21,45 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  Station</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Process Name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Inspection Item</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Specification And Standard</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  Station</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="17"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Code</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Process </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="17"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Code</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -58,6 +80,7 @@
       <sz val="12"/>
       <color indexed="17"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -555,7 +578,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -571,17 +594,17 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
